--- a/service-system/target/classes/static/车辙-2车道多.xlsx
+++ b/service-system/target/classes/static/车辙-2车道多.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A214FA7-816C-440A-B00E-68D4B2A2B32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2949EC-AB7D-4956-BB89-D301CEE02969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="799" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,6 +360,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -368,6 +371,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -390,32 +408,14 @@
     <xf numFmtId="178" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -747,134 +747,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="20" t="s">
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="18"/>
-      <c r="P4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="20"/>
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="17" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="17" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="17" t="s">
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="18"/>
-      <c r="P5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="20"/>
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -884,7 +884,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -894,7 +894,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -904,7 +904,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1315,12 +1315,12 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="23"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="29"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1339,11 +1339,11 @@
       <c r="M28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="17" t="s">
+      <c r="N28" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="18"/>
-      <c r="P28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="20"/>
       <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1362,11 +1362,11 @@
       <c r="M29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="17" t="s">
+      <c r="N29" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="18"/>
-      <c r="P29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="20"/>
       <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1385,11 +1385,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="26"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="32"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1408,11 +1408,11 @@
       <c r="M31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="17" t="s">
+      <c r="N31" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="18"/>
-      <c r="P31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="20"/>
       <c r="Q31" s="12"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1431,11 +1431,11 @@
       <c r="M32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="17" t="s">
+      <c r="N32" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="18"/>
-      <c r="P32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="20"/>
       <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1454,27 +1454,15 @@
       <c r="M33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="17" t="s">
+      <c r="N33" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="18"/>
-      <c r="P33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="20"/>
       <c r="Q33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -1491,6 +1479,18 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -1510,7 +1510,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1529,162 +1529,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
       <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="20" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="20" t="s">
+      <c r="I4" s="19"/>
+      <c r="J4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="20" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="18"/>
+      <c r="O4" s="19"/>
       <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="33" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="34"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="17" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="17" t="s">
+      <c r="I5" s="19"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="17" t="s">
+      <c r="L5" s="19"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="18"/>
+      <c r="O5" s="19"/>
       <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="20"/>
+      <c r="J6" s="26"/>
       <c r="K6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -2054,7 +2054,7 @@
       <c r="N26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O26" s="35"/>
+      <c r="O26" s="17"/>
       <c r="P26" s="13"/>
     </row>
     <row r="27" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2070,11 +2070,11 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="23"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="29"/>
       <c r="P27" s="11"/>
     </row>
     <row r="28" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2093,10 +2093,10 @@
       <c r="M28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="17" t="s">
+      <c r="N28" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="19"/>
+      <c r="O28" s="20"/>
       <c r="P28" s="12"/>
     </row>
     <row r="29" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2115,10 +2115,10 @@
       <c r="M29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="17" t="s">
+      <c r="N29" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="19"/>
+      <c r="O29" s="20"/>
       <c r="P29" s="12"/>
     </row>
     <row r="30" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2137,10 +2137,10 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="26"/>
+      <c r="O30" s="32"/>
       <c r="P30" s="14"/>
     </row>
     <row r="31" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2159,10 +2159,10 @@
       <c r="M31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="17" t="s">
+      <c r="N31" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="19"/>
+      <c r="O31" s="20"/>
       <c r="P31" s="12"/>
     </row>
     <row r="32" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2181,10 +2181,10 @@
       <c r="M32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="17" t="s">
+      <c r="N32" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="19"/>
+      <c r="O32" s="20"/>
       <c r="P32" s="12"/>
     </row>
     <row r="33" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2203,19 +2203,23 @@
       <c r="M33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="17" t="s">
+      <c r="N33" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="19"/>
+      <c r="O33" s="20"/>
       <c r="P33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="N32:O32"/>
     <mergeCell ref="N33:O33"/>
     <mergeCell ref="A4:A6"/>
@@ -2232,15 +2236,11 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -2259,7 +2259,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2278,162 +2278,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
       <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="20" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="20" t="s">
+      <c r="I4" s="19"/>
+      <c r="J4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="20" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="18"/>
+      <c r="O4" s="19"/>
       <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="33" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="34"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="17" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="17" t="s">
+      <c r="I5" s="19"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="17" t="s">
+      <c r="L5" s="19"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="18"/>
+      <c r="O5" s="19"/>
       <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="20"/>
+      <c r="J6" s="26"/>
       <c r="K6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -2803,7 +2803,7 @@
       <c r="N26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O26" s="35"/>
+      <c r="O26" s="17"/>
       <c r="P26" s="13"/>
     </row>
     <row r="27" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2819,11 +2819,11 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="23"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="29"/>
       <c r="P27" s="11"/>
     </row>
     <row r="28" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2842,10 +2842,10 @@
       <c r="M28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="17" t="s">
+      <c r="N28" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="19"/>
+      <c r="O28" s="20"/>
       <c r="P28" s="12"/>
     </row>
     <row r="29" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2864,10 +2864,10 @@
       <c r="M29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="17" t="s">
+      <c r="N29" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="19"/>
+      <c r="O29" s="20"/>
       <c r="P29" s="12"/>
     </row>
     <row r="30" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2886,10 +2886,10 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="26"/>
+      <c r="O30" s="32"/>
       <c r="P30" s="14"/>
     </row>
     <row r="31" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2908,10 +2908,10 @@
       <c r="M31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="17" t="s">
+      <c r="N31" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="19"/>
+      <c r="O31" s="20"/>
       <c r="P31" s="12"/>
     </row>
     <row r="32" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2930,10 +2930,10 @@
       <c r="M32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="17" t="s">
+      <c r="N32" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="19"/>
+      <c r="O32" s="20"/>
       <c r="P32" s="12"/>
     </row>
     <row r="33" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2952,19 +2952,23 @@
       <c r="M33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="17" t="s">
+      <c r="N33" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="19"/>
+      <c r="O33" s="20"/>
       <c r="P33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="N32:O32"/>
     <mergeCell ref="N33:O33"/>
     <mergeCell ref="A4:A6"/>
@@ -2981,15 +2985,11 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -3027,162 +3027,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
       <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="20" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="20" t="s">
+      <c r="I4" s="19"/>
+      <c r="J4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="20" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="18"/>
+      <c r="O4" s="19"/>
       <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="33" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="34"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="17" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="17" t="s">
+      <c r="I5" s="19"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="17" t="s">
+      <c r="L5" s="19"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="18"/>
+      <c r="O5" s="19"/>
       <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="20"/>
+      <c r="J6" s="26"/>
       <c r="K6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3552,7 +3552,7 @@
       <c r="N26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O26" s="35"/>
+      <c r="O26" s="17"/>
       <c r="P26" s="13"/>
     </row>
     <row r="27" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3568,11 +3568,11 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="23"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="29"/>
       <c r="P27" s="11"/>
     </row>
     <row r="28" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3591,10 +3591,10 @@
       <c r="M28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="17" t="s">
+      <c r="N28" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="19"/>
+      <c r="O28" s="20"/>
       <c r="P28" s="12"/>
     </row>
     <row r="29" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3613,10 +3613,10 @@
       <c r="M29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="17" t="s">
+      <c r="N29" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="19"/>
+      <c r="O29" s="20"/>
       <c r="P29" s="12"/>
     </row>
     <row r="30" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3635,10 +3635,10 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="26"/>
+      <c r="O30" s="32"/>
       <c r="P30" s="14"/>
     </row>
     <row r="31" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3657,10 +3657,10 @@
       <c r="M31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="17" t="s">
+      <c r="N31" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="19"/>
+      <c r="O31" s="20"/>
       <c r="P31" s="12"/>
     </row>
     <row r="32" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3679,10 +3679,10 @@
       <c r="M32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="17" t="s">
+      <c r="N32" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="19"/>
+      <c r="O32" s="20"/>
       <c r="P32" s="12"/>
     </row>
     <row r="33" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3701,19 +3701,23 @@
       <c r="M33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="17" t="s">
+      <c r="N33" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="19"/>
+      <c r="O33" s="20"/>
       <c r="P33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="N2:O2"/>
@@ -3730,15 +3734,11 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -3774,134 +3774,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="20" t="s">
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="18"/>
-      <c r="P4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="20"/>
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="17" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="17" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="17" t="s">
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="18"/>
-      <c r="P5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="20"/>
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3911,7 +3911,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3921,7 +3921,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3931,7 +3931,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -4342,12 +4342,12 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="23"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="29"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4366,11 +4366,11 @@
       <c r="M28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="17" t="s">
+      <c r="N28" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="18"/>
-      <c r="P28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="20"/>
       <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4389,11 +4389,11 @@
       <c r="M29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="17" t="s">
+      <c r="N29" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="18"/>
-      <c r="P29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="20"/>
       <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4412,11 +4412,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="26"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="32"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4435,11 +4435,11 @@
       <c r="M31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="17" t="s">
+      <c r="N31" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="18"/>
-      <c r="P31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="20"/>
       <c r="Q31" s="12"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4458,11 +4458,11 @@
       <c r="M32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="17" t="s">
+      <c r="N32" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="18"/>
-      <c r="P32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="20"/>
       <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4481,27 +4481,15 @@
       <c r="M33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="17" t="s">
+      <c r="N33" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="18"/>
-      <c r="P33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="20"/>
       <c r="Q33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -4518,6 +4506,18 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -4554,134 +4554,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="20" t="s">
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="18"/>
-      <c r="P4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="20"/>
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="17" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="17" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="17" t="s">
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="18"/>
-      <c r="P5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="20"/>
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -4691,7 +4691,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -4701,7 +4701,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -4711,7 +4711,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5122,12 +5122,12 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="23"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="29"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5146,11 +5146,11 @@
       <c r="M28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="17" t="s">
+      <c r="N28" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="18"/>
-      <c r="P28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="20"/>
       <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5169,11 +5169,11 @@
       <c r="M29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="17" t="s">
+      <c r="N29" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="18"/>
-      <c r="P29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="20"/>
       <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5192,11 +5192,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="26"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="32"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5215,11 +5215,11 @@
       <c r="M31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="17" t="s">
+      <c r="N31" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="18"/>
-      <c r="P31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="20"/>
       <c r="Q31" s="12"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5238,11 +5238,11 @@
       <c r="M32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="17" t="s">
+      <c r="N32" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="18"/>
-      <c r="P32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="20"/>
       <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5261,27 +5261,15 @@
       <c r="M33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="17" t="s">
+      <c r="N33" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="18"/>
-      <c r="P33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="20"/>
       <c r="Q33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -5298,6 +5286,18 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -5334,134 +5334,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="20" t="s">
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="18"/>
-      <c r="P4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="20"/>
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="17" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="17" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="17" t="s">
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="18"/>
-      <c r="P5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="20"/>
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5471,7 +5471,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5481,7 +5481,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5491,7 +5491,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5902,12 +5902,12 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="23"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="29"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5926,11 +5926,11 @@
       <c r="M28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="17" t="s">
+      <c r="N28" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="18"/>
-      <c r="P28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="20"/>
       <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5949,11 +5949,11 @@
       <c r="M29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="17" t="s">
+      <c r="N29" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="18"/>
-      <c r="P29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="20"/>
       <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5972,11 +5972,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="26"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="32"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5995,11 +5995,11 @@
       <c r="M31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="17" t="s">
+      <c r="N31" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="18"/>
-      <c r="P31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="20"/>
       <c r="Q31" s="12"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6018,11 +6018,11 @@
       <c r="M32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="17" t="s">
+      <c r="N32" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="18"/>
-      <c r="P32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="20"/>
       <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6041,27 +6041,15 @@
       <c r="M33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="17" t="s">
+      <c r="N33" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="18"/>
-      <c r="P33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="20"/>
       <c r="Q33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -6078,6 +6066,18 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -6114,134 +6114,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="20" t="s">
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="18"/>
-      <c r="P4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="20"/>
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="17" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="17" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="17" t="s">
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="18"/>
-      <c r="P5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="20"/>
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -6251,7 +6251,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -6261,7 +6261,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -6271,7 +6271,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -6682,12 +6682,12 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="23"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="29"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6706,11 +6706,11 @@
       <c r="M28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="17" t="s">
+      <c r="N28" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="18"/>
-      <c r="P28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="20"/>
       <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6729,11 +6729,11 @@
       <c r="M29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="17" t="s">
+      <c r="N29" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="18"/>
-      <c r="P29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="20"/>
       <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6752,11 +6752,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="26"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="32"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6775,11 +6775,11 @@
       <c r="M31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="17" t="s">
+      <c r="N31" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="18"/>
-      <c r="P31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="20"/>
       <c r="Q31" s="12"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6798,11 +6798,11 @@
       <c r="M32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="17" t="s">
+      <c r="N32" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="18"/>
-      <c r="P32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="20"/>
       <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6821,27 +6821,15 @@
       <c r="M33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="17" t="s">
+      <c r="N33" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="18"/>
-      <c r="P33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="20"/>
       <c r="Q33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -6858,6 +6846,18 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -6894,134 +6894,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="20" t="s">
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="18"/>
-      <c r="P4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="20"/>
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="17" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="17" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="17" t="s">
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="18"/>
-      <c r="P5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="20"/>
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -7031,7 +7031,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -7041,7 +7041,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -7051,7 +7051,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -7462,12 +7462,12 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="23"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="29"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7486,11 +7486,11 @@
       <c r="M28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="17" t="s">
+      <c r="N28" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="18"/>
-      <c r="P28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="20"/>
       <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7509,11 +7509,11 @@
       <c r="M29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="17" t="s">
+      <c r="N29" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="18"/>
-      <c r="P29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="20"/>
       <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7532,11 +7532,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="26"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="32"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7555,11 +7555,11 @@
       <c r="M31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="17" t="s">
+      <c r="N31" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="18"/>
-      <c r="P31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="20"/>
       <c r="Q31" s="12"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7578,11 +7578,11 @@
       <c r="M32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="17" t="s">
+      <c r="N32" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="18"/>
-      <c r="P32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="20"/>
       <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7601,27 +7601,15 @@
       <c r="M33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="17" t="s">
+      <c r="N33" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="18"/>
-      <c r="P33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="20"/>
       <c r="Q33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -7638,6 +7626,18 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -7657,7 +7657,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7676,162 +7676,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
       <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="20" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="20" t="s">
+      <c r="I4" s="19"/>
+      <c r="J4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="20" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="18"/>
+      <c r="O4" s="19"/>
       <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="33" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="34"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="17" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="17" t="s">
+      <c r="I5" s="19"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="17" t="s">
+      <c r="L5" s="19"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="18"/>
+      <c r="O5" s="19"/>
       <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="20"/>
+      <c r="J6" s="26"/>
       <c r="K6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -8201,7 +8201,7 @@
       <c r="N26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O26" s="35"/>
+      <c r="O26" s="17"/>
       <c r="P26" s="13"/>
     </row>
     <row r="27" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8217,11 +8217,11 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="23"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="29"/>
       <c r="P27" s="11"/>
     </row>
     <row r="28" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8240,10 +8240,10 @@
       <c r="M28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="17" t="s">
+      <c r="N28" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="19"/>
+      <c r="O28" s="20"/>
       <c r="P28" s="12"/>
     </row>
     <row r="29" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8262,10 +8262,10 @@
       <c r="M29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="17" t="s">
+      <c r="N29" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="19"/>
+      <c r="O29" s="20"/>
       <c r="P29" s="12"/>
     </row>
     <row r="30" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8284,10 +8284,10 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="26"/>
+      <c r="O30" s="32"/>
       <c r="P30" s="14"/>
     </row>
     <row r="31" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8306,10 +8306,10 @@
       <c r="M31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="17" t="s">
+      <c r="N31" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="19"/>
+      <c r="O31" s="20"/>
       <c r="P31" s="12"/>
     </row>
     <row r="32" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8328,10 +8328,10 @@
       <c r="M32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="17" t="s">
+      <c r="N32" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="19"/>
+      <c r="O32" s="20"/>
       <c r="P32" s="12"/>
     </row>
     <row r="33" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8350,32 +8350,14 @@
       <c r="M33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="17" t="s">
+      <c r="N33" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="19"/>
+      <c r="O33" s="20"/>
       <c r="P33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="N3:O3"/>
@@ -8388,6 +8370,24 @@
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -8406,7 +8406,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8425,162 +8425,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
       <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="20" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="20" t="s">
+      <c r="I4" s="19"/>
+      <c r="J4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="20" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="18"/>
+      <c r="O4" s="19"/>
       <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="33" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="34"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="17" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="17" t="s">
+      <c r="I5" s="19"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="17" t="s">
+      <c r="L5" s="19"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="18"/>
+      <c r="O5" s="19"/>
       <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="20"/>
+      <c r="J6" s="26"/>
       <c r="K6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -8950,7 +8950,7 @@
       <c r="N26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O26" s="35"/>
+      <c r="O26" s="17"/>
       <c r="P26" s="13"/>
     </row>
     <row r="27" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8966,11 +8966,11 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="23"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="29"/>
       <c r="P27" s="11"/>
     </row>
     <row r="28" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8989,10 +8989,10 @@
       <c r="M28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="17" t="s">
+      <c r="N28" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="19"/>
+      <c r="O28" s="20"/>
       <c r="P28" s="12"/>
     </row>
     <row r="29" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9011,10 +9011,10 @@
       <c r="M29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="17" t="s">
+      <c r="N29" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="19"/>
+      <c r="O29" s="20"/>
       <c r="P29" s="12"/>
     </row>
     <row r="30" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9033,10 +9033,10 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="26"/>
+      <c r="O30" s="32"/>
       <c r="P30" s="14"/>
     </row>
     <row r="31" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9055,10 +9055,10 @@
       <c r="M31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="17" t="s">
+      <c r="N31" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="19"/>
+      <c r="O31" s="20"/>
       <c r="P31" s="12"/>
     </row>
     <row r="32" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9077,10 +9077,10 @@
       <c r="M32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="17" t="s">
+      <c r="N32" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="19"/>
+      <c r="O32" s="20"/>
       <c r="P32" s="12"/>
     </row>
     <row r="33" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9099,19 +9099,23 @@
       <c r="M33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="17" t="s">
+      <c r="N33" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="19"/>
+      <c r="O33" s="20"/>
       <c r="P33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="N32:O32"/>
     <mergeCell ref="N33:O33"/>
     <mergeCell ref="A4:A6"/>
@@ -9128,15 +9132,11 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -9155,7 +9155,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9174,162 +9174,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
       <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="20" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="20" t="s">
+      <c r="I4" s="19"/>
+      <c r="J4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="20" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="18"/>
+      <c r="O4" s="19"/>
       <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="33" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="34"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="17" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="17" t="s">
+      <c r="I5" s="19"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="17" t="s">
+      <c r="L5" s="19"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="18"/>
+      <c r="O5" s="19"/>
       <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="20"/>
+      <c r="J6" s="26"/>
       <c r="K6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -9699,7 +9699,7 @@
       <c r="N26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O26" s="35"/>
+      <c r="O26" s="17"/>
       <c r="P26" s="13"/>
     </row>
     <row r="27" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9715,11 +9715,11 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="23"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="29"/>
       <c r="P27" s="11"/>
     </row>
     <row r="28" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9738,10 +9738,10 @@
       <c r="M28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="17" t="s">
+      <c r="N28" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="19"/>
+      <c r="O28" s="20"/>
       <c r="P28" s="12"/>
     </row>
     <row r="29" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9760,10 +9760,10 @@
       <c r="M29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="17" t="s">
+      <c r="N29" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="19"/>
+      <c r="O29" s="20"/>
       <c r="P29" s="12"/>
     </row>
     <row r="30" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9782,10 +9782,10 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="26"/>
+      <c r="O30" s="32"/>
       <c r="P30" s="14"/>
     </row>
     <row r="31" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9804,10 +9804,10 @@
       <c r="M31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="17" t="s">
+      <c r="N31" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="19"/>
+      <c r="O31" s="20"/>
       <c r="P31" s="12"/>
     </row>
     <row r="32" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9826,10 +9826,10 @@
       <c r="M32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="17" t="s">
+      <c r="N32" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="19"/>
+      <c r="O32" s="20"/>
       <c r="P32" s="12"/>
     </row>
     <row r="33" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9848,19 +9848,23 @@
       <c r="M33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="17" t="s">
+      <c r="N33" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="19"/>
+      <c r="O33" s="20"/>
       <c r="P33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="N32:O32"/>
     <mergeCell ref="N33:O33"/>
     <mergeCell ref="A4:A6"/>
@@ -9877,15 +9881,11 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
